--- a/step_sd.xlsx
+++ b/step_sd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Цели и функционал" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
   <si>
     <t>Целевая аудитория:</t>
   </si>
@@ -311,9 +311,6 @@
     <t>int, (foreign key (user_id) reference users(user_id))</t>
   </si>
   <si>
-    <t>assigned_to</t>
-  </si>
-  <si>
     <t>int, (foreign key (assigned_to) reference users(user_id))</t>
   </si>
   <si>
@@ -381,11 +378,11 @@
     </r>
   </si>
   <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">тема заявки. </t>
+    <t>message</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">текст заявки. </t>
     </r>
     <r>
       <rPr>
@@ -400,25 +397,6 @@
     </r>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">текст заявки. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Вводится пользователем при создании заявки.</t>
-    </r>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -600,11 +578,14 @@
   <si>
     <t>Деревья!A45</t>
   </si>
+  <si>
+    <t>operator_id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1425,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1525,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,7 +1577,7 @@
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,7 +1588,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1618,7 +1599,7 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1626,128 +1607,117 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1755,10 +1725,10 @@
         <v>28</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1797,19 +1767,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,16 +1787,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,10 +1804,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1845,16 +1815,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1862,13 +1832,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1900,19 +1870,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1920,13 +1890,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1934,16 +1904,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1951,16 +1921,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1981,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
